--- a/artfynd/A 34891-2020.xlsx
+++ b/artfynd/A 34891-2020.xlsx
@@ -680,62 +680,55 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20760371</v>
+        <v>67259433</v>
       </c>
       <c r="B2" t="n">
-        <v>55567</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>102109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Svärta</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Melanitta fusca</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>bo, ägg/ungar</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Västerön, Jättholmarna, Hls</t>
+          <t>Jättholmarna, Österön, söder Skarpudden, Hls</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>630054.3409353988</v>
+        <v>632551.7292752302</v>
       </c>
       <c r="R2" t="n">
-        <v>6871269.002894728</v>
+        <v>6871762.407852676</v>
       </c>
       <c r="S2" t="n">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -759,7 +752,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1997-06-01</t>
+          <t>2017-08-23</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -769,7 +762,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1997-06-01</t>
+          <t>2017-08-23</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -777,11 +770,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Kustfågelinventeringen</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
@@ -790,26 +778,46 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Hällmarkstallskog</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Hälsinglands rapportkommitté</t>
+          <t>Johan Myhrer</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Via Hälsinglands rapportkommitté</t>
+          <t>Johan Myhrer</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>54146580</v>
+        <v>67469411</v>
       </c>
       <c r="B3" t="n">
-        <v>56044</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,52 +830,39 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100132</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kustlabb</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Stercorarius parasiticus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Västerön, Jättholmarna, Hls</t>
+          <t>Jättholmarna, Österön, Hls</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>630054.3409353988</v>
+        <v>632575.1870696512</v>
       </c>
       <c r="R3" t="n">
-        <v>6871269.002894728</v>
+        <v>6871801.940509688</v>
       </c>
       <c r="S3" t="n">
-        <v>179</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -891,22 +886,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -917,23 +912,46 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>1 substratenheter # Stem on living tree # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Mats Axbrink</t>
+          <t>Johan Myhrer</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Mats Axbrink, Kenneth Karelius</t>
+          <t>Johan Myhrer</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67259433</v>
+        <v>67469422</v>
       </c>
       <c r="B4" t="n">
         <v>77506</v>
@@ -971,17 +989,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Jättholmarna, Österön, söder Skarpudden, Hls</t>
+          <t>Jättholmarna, Österön, Hls</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>632551.7292752302</v>
+        <v>632600.2259428471</v>
       </c>
       <c r="R4" t="n">
-        <v>6871762.407852676</v>
+        <v>6871788.78750229</v>
       </c>
       <c r="S4" t="n">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1005,7 +1023,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2017-08-23</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1015,7 +1033,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2017-08-23</t>
+          <t>2017-09-07</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1032,11 +1050,6 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Hällmarkstallskog</t>
-        </is>
-      </c>
       <c r="AJ4" t="inlineStr">
         <is>
           <t>tall</t>
@@ -1047,9 +1060,17 @@
           <t>Pinus sylvestris</t>
         </is>
       </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AN4" t="n">
+        <v>1</v>
+      </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>1 substratenheter # Stem on living tree # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1067,7 +1088,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67469411</v>
+        <v>67469439</v>
       </c>
       <c r="B5" t="n">
         <v>77506</v>
@@ -1109,10 +1130,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>632575.1870696512</v>
+        <v>632818.1191594594</v>
       </c>
       <c r="R5" t="n">
-        <v>6871801.940509688</v>
+        <v>6871499.155180517</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1166,19 +1187,9 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Block (&gt; 200 mm)</t>
         </is>
       </c>
       <c r="AN5" t="n">
@@ -1186,7 +1197,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1 substratenheter # Stem on living tree # Pinus sylvestris</t>
+          <t>1 substratenheter # Rock (&gt; 200 mm) # Mycket stort flyttblock</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1204,10 +1215,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67469422</v>
+        <v>67469012</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>90653</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1216,25 +1227,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1246,10 +1257,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>632600.2259428471</v>
+        <v>632665.0060050155</v>
       </c>
       <c r="R6" t="n">
-        <v>6871788.78750229</v>
+        <v>6871929.772139984</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1300,31 +1311,9 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AN6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Stem on living tree # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1341,10 +1330,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67469439</v>
+        <v>67640611</v>
       </c>
       <c r="B7" t="n">
-        <v>77506</v>
+        <v>90676</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1357,25 +1346,33 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>5966</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1383,13 +1380,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>632818.1191594594</v>
+        <v>632555.8244536666</v>
       </c>
       <c r="R7" t="n">
-        <v>6871499.155180517</v>
+        <v>6871717.825677076</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1413,7 +1410,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2017-09-21</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1423,7 +1420,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2017-09-21</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1437,21 +1434,9 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Block (&gt; 200 mm)</t>
-        </is>
-      </c>
-      <c r="AN7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>1 substratenheter # Rock (&gt; 200 mm) # Mycket stort flyttblock</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1468,10 +1453,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67469012</v>
+        <v>67719375</v>
       </c>
       <c r="B8" t="n">
-        <v>90653</v>
+        <v>89412</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1480,29 +1465,37 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>5442</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1510,10 +1503,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>632665.0060050155</v>
+        <v>632745.032652688</v>
       </c>
       <c r="R8" t="n">
-        <v>6871929.772139984</v>
+        <v>6871849.065044531</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1540,7 +1533,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2017-09-27</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1550,7 +1543,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2017-09-07</t>
+          <t>2017-09-27</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1567,6 +1560,36 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Hällmarksblandskog</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Barr dominerar</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1583,10 +1606,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67640611</v>
+        <v>67921837</v>
       </c>
       <c r="B9" t="n">
-        <v>90676</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1599,33 +1622,25 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5966</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1633,10 +1648,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>632555.8244536666</v>
+        <v>632681.910933165</v>
       </c>
       <c r="R9" t="n">
-        <v>6871717.825677076</v>
+        <v>6871955.862079152</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1663,7 +1678,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2017-09-21</t>
+          <t>2017-10-11</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1673,7 +1688,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2017-09-21</t>
+          <t>2017-10-11</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1687,9 +1702,28 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1706,7 +1740,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67719375</v>
+        <v>72942569</v>
       </c>
       <c r="B10" t="n">
         <v>89412</v>
@@ -1756,10 +1790,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>632745.032652688</v>
+        <v>632120.1758324725</v>
       </c>
       <c r="R10" t="n">
-        <v>6871849.065044531</v>
+        <v>6871919.873355518</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1786,7 +1820,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2017-09-27</t>
+          <t>2018-09-01</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1796,7 +1830,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2017-09-27</t>
+          <t>2018-09-01</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1816,12 +1850,7 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>Hällmarksblandskog</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>Barr dominerar</t>
+          <t>Hällmarksmosaik med tall</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -1834,14 +1863,9 @@
           <t>Pinus sylvestris</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Stem on living tree # Pinus sylvestris</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1859,10 +1883,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>67921837</v>
+        <v>72942485</v>
       </c>
       <c r="B11" t="n">
-        <v>77506</v>
+        <v>89412</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1875,25 +1899,33 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1901,13 +1933,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>632681.910933165</v>
+        <v>632683.8313006375</v>
       </c>
       <c r="R11" t="n">
-        <v>6871955.862079152</v>
+        <v>6871954.995097367</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1931,7 +1963,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2017-10-11</t>
+          <t>2018-09-01</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1941,7 +1973,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2017-10-11</t>
+          <t>2018-09-01</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1955,27 +1987,13 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Pinus sylvestris</t>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Hällmarksmosaik med tall</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1993,10 +2011,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>72942569</v>
+        <v>77614485</v>
       </c>
       <c r="B12" t="n">
-        <v>89412</v>
+        <v>77259</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2009,44 +2027,37 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5442</v>
+        <v>228912</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Jättholmarna, Österön, Hls</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>632120.1758324725</v>
+        <v>632639.8055009756</v>
       </c>
       <c r="R12" t="n">
-        <v>6871919.873355518</v>
+        <v>6871354.193908346</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2073,22 +2084,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2018-09-01</t>
+          <t>2019-05-08</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2018-09-01</t>
+          <t>2019-05-08</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2103,7 +2114,7 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>Hällmarksmosaik med tall</t>
+          <t>Hällmarksbarrskog</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -2116,9 +2127,14 @@
           <t>Pinus sylvestris</t>
         </is>
       </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Stubbe</t>
+        </is>
+      </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Stump # Gammal bränd stubbe. # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2136,10 +2152,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>72942485</v>
+        <v>77615539</v>
       </c>
       <c r="B13" t="n">
-        <v>89412</v>
+        <v>77506</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2152,44 +2168,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Jättholmarna, Österön, Hls</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>632683.8313006375</v>
+        <v>632404.1604346266</v>
       </c>
       <c r="R13" t="n">
-        <v>6871954.995097367</v>
+        <v>6871009.164905981</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2216,22 +2225,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2018-09-01</t>
+          <t>2019-05-08</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2018-09-01</t>
+          <t>2019-05-08</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2246,7 +2255,17 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>Hällmarksmosaik med tall</t>
+          <t>Hällmarksbarrskog</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Stem on living tree</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2264,10 +2283,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>77614485</v>
+        <v>77615498</v>
       </c>
       <c r="B14" t="n">
-        <v>77259</v>
+        <v>77506</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2280,21 +2299,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2307,10 +2326,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>632639.8055009756</v>
+        <v>632422.8569267695</v>
       </c>
       <c r="R14" t="n">
-        <v>6871354.193908346</v>
+        <v>6870965.140923627</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2370,24 +2389,14 @@
           <t>Hällmarksbarrskog</t>
         </is>
       </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>Stubbe</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Stump # Gammal bränd stubbe. # Pinus sylvestris</t>
+          <t>Stem on living tree</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2405,7 +2414,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>77615539</v>
+        <v>77615837</v>
       </c>
       <c r="B15" t="n">
         <v>77506</v>
@@ -2448,10 +2457,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>632404.1604346266</v>
+        <v>632588.8255009453</v>
       </c>
       <c r="R15" t="n">
-        <v>6871009.164905981</v>
+        <v>6871439.81565164</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2536,7 +2545,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>77615498</v>
+        <v>77615384</v>
       </c>
       <c r="B16" t="n">
         <v>77506</v>
@@ -2579,10 +2588,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>632422.8569267695</v>
+        <v>632510.8238717377</v>
       </c>
       <c r="R16" t="n">
-        <v>6870965.140923627</v>
+        <v>6870911.093572461</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2642,14 +2651,24 @@
           <t>Hällmarksbarrskog</t>
         </is>
       </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Stem on living tree</t>
+          <t>Standing dead tree/snags # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2667,7 +2686,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>77615837</v>
+        <v>77615590</v>
       </c>
       <c r="B17" t="n">
         <v>77506</v>
@@ -2710,10 +2729,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>632588.8255009453</v>
+        <v>632400.089856643</v>
       </c>
       <c r="R17" t="n">
-        <v>6871439.81565164</v>
+        <v>6871041.038755391</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2756,6 +2775,11 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Rikligt.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2798,10 +2822,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>77615384</v>
+        <v>77616481</v>
       </c>
       <c r="B18" t="n">
-        <v>77506</v>
+        <v>89412</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2814,25 +2838,33 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
@@ -2841,10 +2873,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>632510.8238717377</v>
+        <v>632588.8255009453</v>
       </c>
       <c r="R18" t="n">
-        <v>6870911.093572461</v>
+        <v>6871439.81565164</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2889,6 +2921,11 @@
           <t>14:30</t>
         </is>
       </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Liten.</t>
+        </is>
+      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
@@ -2904,24 +2941,14 @@
           <t>Hällmarksbarrskog</t>
         </is>
       </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Pinus sylvestris</t>
+          <t>Stem on living tree</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2939,10 +2966,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>77615590</v>
+        <v>77615715</v>
       </c>
       <c r="B19" t="n">
-        <v>77506</v>
+        <v>77259</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2955,21 +2982,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2982,10 +3009,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>632400.089856643</v>
+        <v>632332.1869445175</v>
       </c>
       <c r="R19" t="n">
-        <v>6871041.038755391</v>
+        <v>6871185.83617488</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3030,11 +3057,6 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Rikligt.</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
@@ -3052,12 +3074,12 @@
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Död gren</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>Stem on living tree</t>
+          <t>Dead branch  # Bränd.</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -3075,10 +3097,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>77616481</v>
+        <v>77615445</v>
       </c>
       <c r="B20" t="n">
-        <v>89412</v>
+        <v>77506</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3091,33 +3113,25 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
@@ -3126,10 +3140,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>632588.8255009453</v>
+        <v>632477.0901261012</v>
       </c>
       <c r="R20" t="n">
-        <v>6871439.81565164</v>
+        <v>6870905.069579448</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3174,11 +3188,6 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Liten.</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
@@ -3194,14 +3203,14 @@
           <t>Hällmarksbarrskog</t>
         </is>
       </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>Gran och tall.</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Stem on living tree</t>
+          <t>Gran och tall.</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3219,10 +3228,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>77615715</v>
+        <v>77615808</v>
       </c>
       <c r="B21" t="n">
-        <v>77259</v>
+        <v>77506</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3235,21 +3244,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -3262,10 +3271,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>632332.1869445175</v>
+        <v>632465.1986906272</v>
       </c>
       <c r="R21" t="n">
-        <v>6871185.83617488</v>
+        <v>6871368.117343687</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3327,12 +3336,12 @@
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>Död gren</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Dead branch  # Bränd.</t>
+          <t>Stem on living tree</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3350,7 +3359,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>77615445</v>
+        <v>77614537</v>
       </c>
       <c r="B22" t="n">
         <v>77506</v>
@@ -3393,10 +3402,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>632477.0901261012</v>
+        <v>632857.8883532688</v>
       </c>
       <c r="R22" t="n">
-        <v>6870905.069579448</v>
+        <v>6870999.995888553</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3456,14 +3465,19 @@
           <t>Hällmarksbarrskog</t>
         </is>
       </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>Gran och tall.</t>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Gran och tall.</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3481,7 +3495,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>77615808</v>
+        <v>77615347</v>
       </c>
       <c r="B23" t="n">
         <v>77506</v>
@@ -3524,10 +3538,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>632465.1986906272</v>
+        <v>632809.1128968453</v>
       </c>
       <c r="R23" t="n">
-        <v>6871368.117343687</v>
+        <v>6870932.141688766</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3587,14 +3601,19 @@
           <t>Hällmarksbarrskog</t>
         </is>
       </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Stem on living tree</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3612,7 +3631,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>77614537</v>
+        <v>77615625</v>
       </c>
       <c r="B24" t="n">
         <v>77506</v>
@@ -3655,13 +3674,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>632857.8883532688</v>
+        <v>632365.0676003228</v>
       </c>
       <c r="R24" t="n">
-        <v>6870999.995888553</v>
+        <v>6871043.916003562</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3701,6 +3720,11 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>På minst 5 tallar.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3718,19 +3742,14 @@
           <t>Hällmarksbarrskog</t>
         </is>
       </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Stem on living tree</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3748,10 +3767,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>77615347</v>
+        <v>77615756</v>
       </c>
       <c r="B25" t="n">
-        <v>77506</v>
+        <v>77259</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3764,21 +3783,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3791,10 +3810,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>632809.1128968453</v>
+        <v>632348.1425101222</v>
       </c>
       <c r="R25" t="n">
-        <v>6870932.141688766</v>
+        <v>6871200.11674925</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3854,19 +3873,14 @@
           <t>Hällmarksbarrskog</t>
         </is>
       </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>Död gren</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Dead branch  # Bränd.</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3884,10 +3898,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>77615625</v>
+        <v>77615730</v>
       </c>
       <c r="B26" t="n">
-        <v>77506</v>
+        <v>56411</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3900,26 +3914,35 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3927,13 +3950,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>632365.0676003228</v>
+        <v>632332.1869445175</v>
       </c>
       <c r="R26" t="n">
-        <v>6871043.916003562</v>
+        <v>6871185.83617488</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3975,35 +3998,14 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>På minst 5 tallar.</t>
-        </is>
-      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
-      </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>Hällmarksbarrskog</t>
-        </is>
-      </c>
-      <c r="AM26" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>Stem on living tree</t>
-        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
@@ -4020,10 +4022,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>77615756</v>
+        <v>82971589</v>
       </c>
       <c r="B27" t="n">
-        <v>77259</v>
+        <v>103250</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4032,44 +4034,41 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>228912</v>
+        <v>221725</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Jättholmarna, Österön, Hls</t>
+          <t>Jättholmarna Österön, Hls</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>632348.1425101222</v>
+        <v>631271.9111422029</v>
       </c>
       <c r="R27" t="n">
-        <v>6871200.11674925</v>
+        <v>6872098.008164755</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -4091,24 +4090,29 @@
           <t>Jättendal</t>
         </is>
       </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>BWA201407021400</t>
+        </is>
+      </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2019-05-08</t>
+          <t>2014-07-02</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2019-05-08</t>
+          <t>2014-07-02</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4117,44 +4121,37 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>Hällmarksbarrskog</t>
-        </is>
-      </c>
-      <c r="AM27" t="inlineStr">
-        <is>
-          <t>Död gren</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Dead branch  # Bränd.</t>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>Tät fuktig granskog</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Johan Myhrer</t>
+          <t>Björn Wannberg</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Johan Myhrer</t>
-        </is>
-      </c>
-      <c r="AY27" t="inlineStr"/>
+          <t>Björn Wannberg</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>Hälsinglands flora (2019)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>77615730</v>
+        <v>82971641</v>
       </c>
       <c r="B28" t="n">
-        <v>56411</v>
+        <v>103265</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4163,53 +4160,41 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100049</v>
+        <v>221144</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Jättholmarna, Österön, Hls</t>
+          <t>Jättholmarna Österön  Gammelhamnen, Hls</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>632332.1869445175</v>
+        <v>631680.6227942125</v>
       </c>
       <c r="R28" t="n">
-        <v>6871185.83617488</v>
+        <v>6871383.354623683</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -4231,24 +4216,29 @@
           <t>Jättendal</t>
         </is>
       </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>BWA201407021900</t>
+        </is>
+      </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2019-05-08</t>
+          <t>2014-07-02</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2019-05-08</t>
+          <t>2014-07-02</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4259,26 +4249,35 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Johan Myhrer</t>
+          <t>Björn Wannberg</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Johan Myhrer</t>
-        </is>
-      </c>
-      <c r="AY28" t="inlineStr"/>
+          <t>Björn Wannberg</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>Hälsinglands flora (2019)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>82971589</v>
+        <v>95940031</v>
       </c>
       <c r="B29" t="n">
-        <v>103250</v>
+        <v>57068</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4287,41 +4286,49 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>221725</v>
+        <v>103057</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Sävsparv</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Emberiza schoeniclus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Jättholmarna Österön, Hls</t>
+          <t>Jättholmarna, Österön, kärret söder hatten, Hls</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>631271.9111422029</v>
+        <v>631040.0643823989</v>
       </c>
       <c r="R29" t="n">
-        <v>6872098.008164755</v>
+        <v>6872325.923845204</v>
       </c>
       <c r="S29" t="n">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4343,29 +4350,24 @@
           <t>Jättendal</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>BWA201407021400</t>
-        </is>
-      </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2014-07-02</t>
+          <t>2021-09-06</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2014-07-02</t>
+          <t>2021-09-06</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4376,35 +4378,26 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
-      </c>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>Tät fuktig granskog</t>
-        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Björn Wannberg</t>
+          <t>Johan Myhrer</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Björn Wannberg</t>
-        </is>
-      </c>
-      <c r="AY29" t="inlineStr">
-        <is>
-          <t>Hälsinglands flora (2019)</t>
-        </is>
-      </c>
+          <t>Johan Myhrer</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>82971641</v>
+        <v>95981637</v>
       </c>
       <c r="B30" t="n">
-        <v>103265</v>
+        <v>77506</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4413,41 +4406,44 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221144</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Jättholmarna Österön  Gammelhamnen, Hls</t>
+          <t>Jättholmarna, Österön, Hls</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>631680.6227942125</v>
+        <v>630888.8679593962</v>
       </c>
       <c r="R30" t="n">
-        <v>6871383.354623683</v>
+        <v>6872492.906055558</v>
       </c>
       <c r="S30" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4469,14 +4465,9 @@
           <t>Jättendal</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>BWA201407021900</t>
-        </is>
-      </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2014-07-02</t>
+          <t>2021-09-06</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -4486,7 +4477,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2014-07-02</t>
+          <t>2021-09-06</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -4500,37 +4491,54 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>Granskog</t>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Björn Wannberg</t>
+          <t>Johan Myhrer</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Björn Wannberg</t>
-        </is>
-      </c>
-      <c r="AY30" t="inlineStr">
-        <is>
-          <t>Hälsinglands flora (2019)</t>
-        </is>
-      </c>
+          <t>Johan Myhrer</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>95940031</v>
+        <v>95981616</v>
       </c>
       <c r="B31" t="n">
-        <v>57068</v>
+        <v>89412</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4543,21 +4551,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>103057</v>
+        <v>5442</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sävsparv</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Emberiza schoeniclus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -4565,23 +4573,26 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Jättholmarna, Österön, kärret söder hatten, Hls</t>
+          <t>Jättholmarna, Österön, Hls</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>631040.0643823989</v>
+        <v>630986.7496024609</v>
       </c>
       <c r="R31" t="n">
-        <v>6872325.923845204</v>
+        <v>6872510.328348756</v>
       </c>
       <c r="S31" t="n">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4610,7 +4621,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4620,7 +4631,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4629,8 +4640,34 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4647,10 +4684,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>95981637</v>
+        <v>96207457</v>
       </c>
       <c r="B32" t="n">
-        <v>77506</v>
+        <v>89412</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4663,25 +4700,33 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
@@ -4690,10 +4735,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>630888.8679593962</v>
+        <v>630992.4355169706</v>
       </c>
       <c r="R32" t="n">
-        <v>6872492.906055558</v>
+        <v>6872460.637861709</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4720,7 +4765,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2021-09-06</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4730,7 +4775,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2021-09-06</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4747,11 +4792,6 @@
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>Tallskog</t>
-        </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
@@ -4788,10 +4828,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>95981616</v>
+        <v>101766880</v>
       </c>
       <c r="B33" t="n">
-        <v>89412</v>
+        <v>56672</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4804,21 +4844,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5442</v>
+        <v>103006</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Rörsångare</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Acrocephalus scirpaceus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Hermann, 1804)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -4826,26 +4866,27 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Jättholmarna, Österön, Hls</t>
+          <t>Österön, Skommargölarna, Jättholmarna, Nordanstig, Hls, Hls</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>630986.7496024609</v>
+        <v>631125.2758657323</v>
       </c>
       <c r="R33" t="n">
-        <v>6872510.328348756</v>
+        <v>6872243.979444124</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4869,22 +4910,27 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2021-09-06</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:38</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2021-09-06</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:12</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Bitvis trög och upprepad sång påminde starkt om busksångare.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4893,34 +4939,8 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>Tallskog</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4937,10 +4957,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>96207457</v>
+        <v>101766887</v>
       </c>
       <c r="B34" t="n">
-        <v>89412</v>
+        <v>103250</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4949,52 +4969,49 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5442</v>
+        <v>221725</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>(L.) A. Gray</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>blomknopp</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Jättholmarna, Österön, Hls</t>
+          <t>Österön, Jättholmarna, Nordanstig, Hls, Hls</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>630992.4355169706</v>
+        <v>631153.6754140988</v>
       </c>
       <c r="R34" t="n">
-        <v>6872460.637861709</v>
+        <v>6872192.335403905</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -5018,22 +5035,22 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:38</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -5042,29 +5059,8 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM34" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
@@ -5081,37 +5077,37 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>101766880</v>
+        <v>20760371</v>
       </c>
       <c r="B35" t="n">
-        <v>56672</v>
+        <v>55567</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>103006</v>
+        <v>102109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rörsångare</t>
+          <t>Svärta</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Acrocephalus scirpaceus</t>
+          <t>Melanitta fusca</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hermann, 1804)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -5119,27 +5115,24 @@
           <t>1</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
+          <t>bo, ägg/ungar</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Österön, Skommargölarna, Jättholmarna, Nordanstig, Hls, Hls</t>
+          <t>Västerön, Jättholmarna, Hls</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>631125.2758657323</v>
+        <v>630054.3409353988</v>
       </c>
       <c r="R35" t="n">
-        <v>6872243.979444124</v>
+        <v>6871269.002894728</v>
       </c>
       <c r="S35" t="n">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -5163,27 +5156,27 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>1997-06-01</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>07:38</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>1997-06-01</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Bitvis trög och upprepad sång påminde starkt om busksångare.</t>
+          <t>Kustfågelinventeringen</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5198,22 +5191,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Johan Myhrer</t>
+          <t>Hälsinglands rapportkommitté</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Johan Myhrer</t>
+          <t>Via Hälsinglands rapportkommitté</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>101766887</v>
+        <v>54146580</v>
       </c>
       <c r="B36" t="n">
-        <v>103250</v>
+        <v>56044</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -5222,49 +5215,56 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>221725</v>
+        <v>100132</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Kustlabb</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Stercorarius parasiticus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>blomknopp</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Österön, Jättholmarna, Nordanstig, Hls, Hls</t>
+          <t>Västerön, Jättholmarna, Hls</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>631153.6754140988</v>
+        <v>630054.3409353988</v>
       </c>
       <c r="R36" t="n">
-        <v>6872192.335403905</v>
+        <v>6871269.002894728</v>
       </c>
       <c r="S36" t="n">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -5288,22 +5288,22 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>07:38</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5318,12 +5318,12 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Johan Myhrer</t>
+          <t>Mats Axbrink</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Johan Myhrer</t>
+          <t>Mats Axbrink, Kenneth Karelius</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
